--- a/output/L1 LINKSS(1)_output.xlsx
+++ b/output/L1 LINKSS(1)_output.xlsx
@@ -656,12 +656,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>CREATIVE LAB WORLD Vertical Laboratory Deep …</t>
+          <t>Dinesh Scientific Vertical Laboratory Deep …</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>Rs.497,558.04</t>
+          <t>Rs.497,558.03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -1129,12 +1129,12 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>CREATIVE LAB WORLD Vertical Laboratory Deep …</t>
+          <t>Dinesh Scientific Vertical Laboratory Deep …</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>Rs.359,564.00</t>
+          <t>Rs.359,563.99</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
